--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\COMP3782Hardware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{8C94577D-1C92-447F-B4DD-CF179B0561E7}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{CD7BEE58-19D8-413E-9E55-C9F8F9763A83}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Task ID</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>create JSON interface</t>
+  </si>
+  <si>
+    <t>Complete Documentation updates, Upload To gitHub</t>
+  </si>
+  <si>
+    <t>Printing replica 3D Brain</t>
+  </si>
+  <si>
+    <t>Focusing on LED strip driver implementation</t>
+  </si>
+  <si>
+    <t>Focusing on implementing Rasbperry PI</t>
+  </si>
+  <si>
+    <t>Work on Widows Implementation</t>
   </si>
 </sst>
 </file>
@@ -239,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E24">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -551,7 +566,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A20" sqref="A20:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -814,6 +829,9 @@
       <c r="D15" s="7">
         <v>43335</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16">
@@ -828,8 +846,11 @@
       <c r="D16" s="7">
         <v>43335</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -842,8 +863,11 @@
       <c r="D17" s="7">
         <v>43335</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -856,8 +880,11 @@
       <c r="D18" s="7">
         <v>43335</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -870,19 +897,88 @@
       <c r="D19" s="7">
         <v>43335</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1853,9 +1949,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{CD7BEE58-19D8-413E-9E55-C9F8F9763A83}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{3F120693-4C1A-411C-80C7-FAD3775AE42B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Task ID</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Work on Widows Implementation</t>
+  </si>
+  <si>
+    <t>Work on Documenation, Complete BSL induction</t>
+  </si>
+  <si>
+    <t>Work on Java implementation, Complete BSL induction</t>
+  </si>
+  <si>
+    <t>Work on LED implementation, Complete BSL induction</t>
+  </si>
+  <si>
+    <t>Work on Raspberry Pi interface, Complete BSL induction</t>
+  </si>
+  <si>
+    <t>Work on brain diagram, Complete BSL induction</t>
   </si>
 </sst>
 </file>
@@ -254,7 +269,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E29">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -565,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -914,6 +929,9 @@
       <c r="D20" s="7">
         <v>43342</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21">
@@ -928,6 +946,9 @@
       <c r="D21" s="7">
         <v>43342</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22">
@@ -942,6 +963,9 @@
       <c r="D22" s="7">
         <v>43342</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23">
@@ -956,6 +980,9 @@
       <c r="D23" s="7">
         <v>43342</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24">
@@ -970,12 +997,80 @@
       <c r="D24" s="7">
         <v>43342</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7">
+        <v>43349</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:5" ht="15.75" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{3F120693-4C1A-411C-80C7-FAD3775AE42B}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{6DBBA9F7-8B4B-4F50-BF63-47AB6E188AE8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
   <si>
     <t>Task ID</t>
   </si>
@@ -140,6 +140,21 @@
   </si>
   <si>
     <t>Work on brain diagram, Complete BSL induction</t>
+  </si>
+  <si>
+    <t>Discuss and Implment Presentation Poster</t>
+  </si>
+  <si>
+    <t>Work on Documentation</t>
+  </si>
+  <si>
+    <t>Test Brain activity visual representation</t>
+  </si>
+  <si>
+    <t>Code Refactoring</t>
+  </si>
+  <si>
+    <t>Test Raspberry pi implementation.</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E34">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -581,7 +596,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D34" sqref="A30:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1014,6 +1029,9 @@
       <c r="D25" s="7">
         <v>43349</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26">
@@ -1028,6 +1046,9 @@
       <c r="D26" s="7">
         <v>43349</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27">
@@ -1042,6 +1063,9 @@
       <c r="D27" s="7">
         <v>43349</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28">
@@ -1056,6 +1080,9 @@
       <c r="D28" s="7">
         <v>43349</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29">
@@ -1070,26 +1097,94 @@
       <c r="D29" s="7">
         <v>43349</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{6DBBA9F7-8B4B-4F50-BF63-47AB6E188AE8}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{24CE8A36-AB50-4E7C-824F-D4757460C79D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>Task ID</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Test Raspberry pi implementation.</t>
+  </si>
+  <si>
+    <t>Work on Design of Poster</t>
+  </si>
+  <si>
+    <t>workd on LED and heat map implementation</t>
+  </si>
+  <si>
+    <t>Work on integrating LED drivers with Raspberry PI</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E39">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -595,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="A30:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1114,6 +1123,9 @@
       <c r="D30" s="7">
         <v>43356</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31">
@@ -1128,6 +1140,9 @@
       <c r="D31" s="7">
         <v>43356</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32">
@@ -1142,8 +1157,11 @@
       <c r="D32" s="7">
         <v>43356</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1156,8 +1174,11 @@
       <c r="D33" s="7">
         <v>43356</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1170,21 +1191,89 @@
       <c r="D34" s="7">
         <v>43356</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1"/>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="7">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{24CE8A36-AB50-4E7C-824F-D4757460C79D}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CDB45D31-1AF0-4B6A-86E1-7AE5F4CCE9EA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
   <si>
     <t>Task ID</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Work on integrating LED drivers with Raspberry PI</t>
+  </si>
+  <si>
+    <t>Programming Java implementation</t>
+  </si>
+  <si>
+    <t>Continue work on Poster for presentation</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E44">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -604,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1208,6 +1214,9 @@
       <c r="D35" s="7">
         <v>43363</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36">
@@ -1222,6 +1231,9 @@
       <c r="D36" s="7">
         <v>43363</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37">
@@ -1236,6 +1248,9 @@
       <c r="D37" s="7">
         <v>43363</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38">
@@ -1250,6 +1265,9 @@
       <c r="D38" s="7">
         <v>43363</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39">
@@ -1264,12 +1282,80 @@
       <c r="D39" s="7">
         <v>43363</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1"/>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="7">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7">
+        <v>43370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7">
+        <v>43370</v>
+      </c>
+    </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="47" spans="1:5" ht="15.75" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_B8FAB47D3BCFFCB86BD6A932BC3E1AB1A67A14FA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CDB45D31-1AF0-4B6A-86E1-7AE5F4CCE9EA}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="102_{D5FC7089-860C-4024-8090-753591C48F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{002CAE6A-C110-477A-9ABF-153B74B1EA3D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
   <si>
     <t>Task ID</t>
   </si>
@@ -170,13 +170,37 @@
   </si>
   <si>
     <t>Continue work on Poster for presentation</t>
+  </si>
+  <si>
+    <t>workd on LED Strip Drivers</t>
+  </si>
+  <si>
+    <t>Work on LED Drivers</t>
+  </si>
+  <si>
+    <t>Complete LED Driver implementation</t>
+  </si>
+  <si>
+    <t>Josh Rancis</t>
+  </si>
+  <si>
+    <t>Work on Poster</t>
+  </si>
+  <si>
+    <t>Update Documentation, Merge Master</t>
+  </si>
+  <si>
+    <t>Working on Poster, 3D printed Model</t>
+  </si>
+  <si>
+    <t>Pull usefull data from Raspberry Pi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,13 +210,31 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -224,6 +266,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,7 +360,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E54">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -610,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1299,6 +1360,9 @@
       <c r="D40" s="7">
         <v>43370</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41">
@@ -1313,6 +1377,9 @@
       <c r="D41" s="7">
         <v>43370</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42">
@@ -1327,6 +1394,9 @@
       <c r="D42" s="7">
         <v>43370</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43">
@@ -1341,6 +1411,9 @@
       <c r="D43" s="7">
         <v>43370</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44">
@@ -1355,27 +1428,175 @@
       <c r="D44" s="7">
         <v>43370</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="10">
+        <v>43370</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="13">
+        <v>43370</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="10">
+        <v>43370</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="13">
+        <v>43370</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="10">
+        <v>43370</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="7">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7">
+        <v>43377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="102_{D5FC7089-860C-4024-8090-753591C48F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{002CAE6A-C110-477A-9ABF-153B74B1EA3D}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="102_{D5FC7089-860C-4024-8090-753591C48F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{750828F6-E4CE-4670-B349-5D9B1D54203F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Documentation/ScheduledTasks.xlsx
+++ b/Documentation/ScheduledTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timot\OneDrive\Flinders\IT Project\COMP3782Hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="102_{D5FC7089-860C-4024-8090-753591C48F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{750828F6-E4CE-4670-B349-5D9B1D54203F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="102_{D5FC7089-860C-4024-8090-753591C48F14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{B524EBAD-D197-43E2-8D17-046AF6FDAE48}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>Task ID</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>Pull usefull data from Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Finish up the poster</t>
+  </si>
+  <si>
+    <t>Demonstrate LED driver on Human Brain</t>
+  </si>
+  <si>
+    <t>Work on Final report and any outstanding documentation</t>
+  </si>
+  <si>
+    <t>Work on LED driver on Raspberry pi</t>
+  </si>
+  <si>
+    <t>Implement Josh's software onto the Raspberry Pi</t>
   </si>
 </sst>
 </file>
@@ -360,7 +375,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E59">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name"/>
@@ -672,7 +687,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E49"/>
+      <selection activeCell="A55" sqref="A55:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1530,6 +1545,9 @@
       <c r="D50" s="7">
         <v>43377</v>
       </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51">
@@ -1544,6 +1562,9 @@
       <c r="D51" s="7">
         <v>43377</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52">
@@ -1558,6 +1579,9 @@
       <c r="D52" s="7">
         <v>43377</v>
       </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53">
@@ -1572,6 +1596,9 @@
       <c r="D53" s="7">
         <v>43377</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54">
@@ -1586,12 +1613,80 @@
       <c r="D54" s="7">
         <v>43377</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1"/>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="7">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="7">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="7">
+        <v>43384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7">
+        <v>43384</v>
+      </c>
+    </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
